--- a/data/cmecs.xlsx
+++ b/data/cmecs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrinec_k\Desktop\2024_Q1-Q4_SWMP_Quarterly_Report-main- Copy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petrinec_k\Desktop\2025_Q1-Q2_SWMP_Report\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DBBFB2B-7BD9-4D86-B672-AEE5C4F63B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CD8C8B-80CE-4213-81CE-473B683311E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="0" windowWidth="13710" windowHeight="10590" xr2:uid="{1F914F51-2752-448C-9DA5-DA94600219C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1F914F51-2752-448C-9DA5-DA94600219C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>GTMSSWQ</t>
   </si>
   <si>
-    <t>StationType</t>
-  </si>
-  <si>
     <t>Realm</t>
   </si>
   <si>
@@ -188,96 +185,9 @@
     <t>Ecoregion</t>
   </si>
   <si>
-    <t>NERR_BioRegion</t>
-  </si>
-  <si>
-    <t>EPAIII_Code</t>
-  </si>
-  <si>
-    <t>EPAIII_Name</t>
-  </si>
-  <si>
-    <t>EPAIV_Code</t>
-  </si>
-  <si>
-    <t>EPAIV_Name</t>
-  </si>
-  <si>
-    <t>AquaticSystem</t>
-  </si>
-  <si>
-    <t>AquaticSubsystem</t>
-  </si>
-  <si>
-    <t>WaterColumn</t>
-  </si>
-  <si>
-    <t>SalinityRegime</t>
-  </si>
-  <si>
     <t>Salinity Class</t>
   </si>
   <si>
-    <t>TempRegime</t>
-  </si>
-  <si>
-    <t>ResidualCurrentType</t>
-  </si>
-  <si>
-    <t>TidalFlowType</t>
-  </si>
-  <si>
-    <t>PrimaryWaterSource</t>
-  </si>
-  <si>
-    <t>TectonicSetting</t>
-  </si>
-  <si>
-    <t>PhysiographicSetting</t>
-  </si>
-  <si>
-    <t>GeoformOrigin</t>
-  </si>
-  <si>
-    <t>Level1Geoform_GreaterThan1km2</t>
-  </si>
-  <si>
-    <t>Level1GeoformType_GreaterThan1km2</t>
-  </si>
-  <si>
-    <t>Level2Geoform_LessThan1km2</t>
-  </si>
-  <si>
-    <t>Level2GeoformType_LessThan1km2</t>
-  </si>
-  <si>
-    <t>DominantLandCover</t>
-  </si>
-  <si>
-    <t>SubstrateOrigin</t>
-  </si>
-  <si>
-    <t>SubstrateClass</t>
-  </si>
-  <si>
-    <t>SubstrateSubclass</t>
-  </si>
-  <si>
-    <t>BioticSetting</t>
-  </si>
-  <si>
-    <t>BioticClass</t>
-  </si>
-  <si>
-    <t>BioticSubclass</t>
-  </si>
-  <si>
-    <t>StationDescription_NO land cover</t>
-  </si>
-  <si>
-    <t>StationCode</t>
-  </si>
-  <si>
     <t>high salinity</t>
   </si>
   <si>
@@ -294,6 +204,96 @@
   </si>
   <si>
     <t>The Guana Tolomato Mantanzas San Sebastian station is a fixed near-bottom water quality station (GTMSSWQ) in a Channel surrounded by Emergent Wetland. The station is located within a Moderately Tidal, high salinity Lagoonal Estuary.</t>
+  </si>
+  <si>
+    <t>NERR BioRegion</t>
+  </si>
+  <si>
+    <t>EPAIII Code</t>
+  </si>
+  <si>
+    <t>EPAIII Name</t>
+  </si>
+  <si>
+    <t>EPAIV Code</t>
+  </si>
+  <si>
+    <t>EPAIV Name</t>
+  </si>
+  <si>
+    <t>Aquatic System</t>
+  </si>
+  <si>
+    <t>Aquatic Subsystem</t>
+  </si>
+  <si>
+    <t>Station Type</t>
+  </si>
+  <si>
+    <t>Station Code</t>
+  </si>
+  <si>
+    <t>Water Column</t>
+  </si>
+  <si>
+    <t>Salinity Regime</t>
+  </si>
+  <si>
+    <t>Temp Regime</t>
+  </si>
+  <si>
+    <t>Residual Current Type</t>
+  </si>
+  <si>
+    <t>Tidal Flow Type</t>
+  </si>
+  <si>
+    <t>Primary Water Source</t>
+  </si>
+  <si>
+    <t>Tectonic Setting</t>
+  </si>
+  <si>
+    <t>Physiographic Setting</t>
+  </si>
+  <si>
+    <t>Geoform Origin</t>
+  </si>
+  <si>
+    <t>Level 1 Geoform &gt;1km2</t>
+  </si>
+  <si>
+    <t>Level 1 Geoform Type &gt;1km2</t>
+  </si>
+  <si>
+    <t>Level 2 Geoform &lt;1km2</t>
+  </si>
+  <si>
+    <t>Level 2 Geoform Type &lt;1km2</t>
+  </si>
+  <si>
+    <t>Dominant Land Cover</t>
+  </si>
+  <si>
+    <t>Substrate Origin</t>
+  </si>
+  <si>
+    <t>Substrate Class</t>
+  </si>
+  <si>
+    <t>Substrate Subclass</t>
+  </si>
+  <si>
+    <t>Biotic Setting</t>
+  </si>
+  <si>
+    <t>Biotic Class</t>
+  </si>
+  <si>
+    <t>Biotic Subclass</t>
+  </si>
+  <si>
+    <t>Station Description NO land cover</t>
   </si>
 </sst>
 </file>
@@ -678,7 +678,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +695,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1">
         <v>75</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>6</v>
@@ -848,7 +848,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -882,7 +882,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
@@ -899,7 +899,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
@@ -933,24 +933,24 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>13</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>15</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>18</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>19</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>24</v>
@@ -1171,7 +1171,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>25</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>26</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>27</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>28</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>29</v>
@@ -1256,19 +1256,19 @@
     </row>
     <row r="34" spans="1:5" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
